--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365982.7428334087</v>
+        <v>457896.9318625614</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9321424.560661636</v>
+        <v>8666268.959347745</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8366664.17278847</v>
+        <v>8612872.176815497</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.8405921356984</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>36.74532229879934</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.53696330591358</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>52.04897529147635</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.11163636040635</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.8461210887087</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>146.8461210887087</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887087</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.1725371760949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>83.41747001683318</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>114.5204773083663</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>146.8461210887087</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>146.8461210887087</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>52.21594625443479</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.41405905276473</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="D8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U9" t="n">
-        <v>165.1725371760947</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663202</v>
+        <v>149.793316143436</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>78.96122915360965</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5582063813129</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>301.1261226415114</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>66.11485303372851</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.6915663742737</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>148.478915514736</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0460904171307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.01262040724721</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1461,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3400163777887</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>30.54219944928975</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.809572818776</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>20.84550497521012</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3113116019144</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>104.9382845759052</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>159.9967189074651</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1610,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>212.3287202925336</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>334.5625851445762</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1692,19 +1694,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>12.917518475752</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0892145641079</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.809572818776</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.1524414707</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3113116019144</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>106.4735778903241</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>341.8337041009711</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>99.59933623926882</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1904,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>115.0138334144186</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>195.2768636342815</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>209.6931219609837</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>43.83162758969803</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.3866485609005</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.155902292902955</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>26.89854620008782</v>
+        <v>24.27311936184012</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>63.36332646735467</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>28.03004253565322</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>76.31814835826484</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>106.0918933795946</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.7614152959627</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>265.9318059937538</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2928,13 +2930,13 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>81.77200357366344</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>127.6216357996079</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>184.1739595194687</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>173.5578851713661</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U33" t="n">
         <v>225.7871683969286</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>127.3385186497847</v>
       </c>
       <c r="I34" t="n">
-        <v>5.546312764596341</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>116.2516724938251</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>160.2962291795008</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3393,7 +3395,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3427,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>61.36917500886953</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>45.02091734557739</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3503,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>282.3939120001642</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>299.0513903014173</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U39" t="n">
         <v>225.7871683969286</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>73.01324780167951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>221.7048515690722</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>238.4089002814613</v>
+        <v>209.7083496784897</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3876,7 +3878,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494252</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3904,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>20.95866062610961</v>
+        <v>169.365668211518</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>212.3287202925336</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>188.2196394312107</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4070,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657088</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
         <v>89.59687541851115</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>247.8357087273479</v>
+        <v>59.50326661490367</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330562</v>
+        <v>351.9116580139103</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330562</v>
+        <v>203.5822427727904</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330562</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330562</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330562</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>18.13634036116618</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058979</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>141.3070323458395</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123837</v>
+        <v>407.6508467588563</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985593</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020278</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652811</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262269</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433449</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268598</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268598</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="V2" t="n">
-        <v>133.0228471103747</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="W2" t="n">
-        <v>133.0228471103747</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="X2" t="n">
-        <v>133.0228471103747</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="Y2" t="n">
-        <v>133.0228471103747</v>
+        <v>500.2410732550301</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.3894859156839</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>163.9364566345569</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024228</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140249</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546608</v>
+        <v>392.911462660324</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476356</v>
+        <v>511.1831359408227</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017072</v>
+        <v>586.7735145200479</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652811</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>696.024607952237</v>
+        <v>509.310657927099</v>
       </c>
       <c r="S3" t="n">
-        <v>696.024607952237</v>
+        <v>360.9812426859792</v>
       </c>
       <c r="T3" t="n">
-        <v>506.6048229357519</v>
+        <v>212.6518274448593</v>
       </c>
       <c r="U3" t="n">
-        <v>506.6048229357519</v>
+        <v>64.32241220373947</v>
       </c>
       <c r="V3" t="n">
-        <v>506.6048229357519</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="W3" t="n">
-        <v>506.6048229357519</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X3" t="n">
-        <v>506.6048229357519</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y3" t="n">
-        <v>506.6048229357519</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404143</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230187</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.00204697330563</v>
+        <v>142.396238631475</v>
       </c>
       <c r="C5" t="n">
-        <v>15.00204697330563</v>
+        <v>142.396238631475</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330563</v>
+        <v>142.396238631475</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330563</v>
+        <v>142.396238631475</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330563</v>
+        <v>142.396238631475</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330563</v>
+        <v>142.396238631475</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330563</v>
+        <v>142.396238631475</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330563</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J5" t="n">
-        <v>21.0337116067851</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058976</v>
+        <v>53.10181779183024</v>
       </c>
       <c r="L5" t="n">
-        <v>191.874309407919</v>
+        <v>141.3070323458396</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644763</v>
+        <v>271.1217663066257</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123839</v>
+        <v>407.6508467588562</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985595</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602028</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652813</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652813</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652813</v>
+        <v>439.0550691137148</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652813</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="U5" t="n">
-        <v>560.6825636487961</v>
+        <v>142.396238631475</v>
       </c>
       <c r="V5" t="n">
-        <v>371.2627786323109</v>
+        <v>142.396238631475</v>
       </c>
       <c r="W5" t="n">
-        <v>181.8429936158257</v>
+        <v>142.396238631475</v>
       </c>
       <c r="X5" t="n">
-        <v>181.8429936158257</v>
+        <v>142.396238631475</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.00204697330563</v>
+        <v>142.396238631475</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>581.8870116452133</v>
+        <v>96.9745776384288</v>
       </c>
       <c r="C6" t="n">
-        <v>407.4339823640863</v>
+        <v>96.9745776384288</v>
       </c>
       <c r="D6" t="n">
-        <v>258.4995727028351</v>
+        <v>96.9745776384288</v>
       </c>
       <c r="E6" t="n">
-        <v>99.26211769737955</v>
+        <v>96.9745776384288</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330563</v>
+        <v>96.9745776384288</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330563</v>
+        <v>96.9745776384288</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330563</v>
+        <v>96.9745776384288</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330563</v>
+        <v>34.75265173585765</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330563</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024284</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772658</v>
+        <v>111.9554248488222</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140255</v>
+        <v>247.5338027825025</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546614</v>
+        <v>392.9114626603241</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476362</v>
+        <v>511.1831359408228</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017077</v>
+        <v>586.773514520048</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652813</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652813</v>
+        <v>509.3106579270992</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652813</v>
+        <v>393.6334081206685</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652813</v>
+        <v>245.3039928795487</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652813</v>
+        <v>96.9745776384288</v>
       </c>
       <c r="V6" t="n">
-        <v>750.1023486652813</v>
+        <v>96.9745776384288</v>
       </c>
       <c r="W6" t="n">
-        <v>750.1023486652813</v>
+        <v>96.9745776384288</v>
       </c>
       <c r="X6" t="n">
-        <v>750.1023486652813</v>
+        <v>96.9745776384288</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.1023486652813</v>
+        <v>96.9745776384288</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330563</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330563</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330563</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330563</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230188</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M7" t="n">
-        <v>42.9899398517074</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396366</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>750.1023486652808</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C8" t="n">
-        <v>750.1023486652808</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D8" t="n">
-        <v>560.6825636487957</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="E8" t="n">
-        <v>371.2627786323106</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F8" t="n">
-        <v>181.8429936158256</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330562</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652808</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652808</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652808</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652808</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y8" t="n">
-        <v>750.1023486652808</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017073</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652808</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U9" t="n">
-        <v>583.2614020227609</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V9" t="n">
-        <v>393.8416170062758</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="W9" t="n">
-        <v>204.4218319897907</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="X9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330562</v>
+        <v>30.53661367296053</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230187</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170739</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1634.430639198019</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C11" t="n">
-        <v>1634.430639198019</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D11" t="n">
-        <v>1634.430639198019</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="E11" t="n">
-        <v>1248.642386599775</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>837.6564818101676</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>421.9411218290435</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>117.7733211810522</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>186.3894711936273</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>440.055736850883</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>791.6529319622239</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>1648.887652554184</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2045.692679619748</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>2424.591091314532</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>2274.612388774394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2021.030479262141</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2021.030479262141</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2021.030479262141</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2021.030479262141</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>2021.030479262141</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>847.7078870346778</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>673.2548577535508</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>524.3204480922996</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>365.082993086844</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>218.548435113729</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>81.84134786343733</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>81.84134786343733</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>112.8154098726237</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>296.6386113086636</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>590.134131986624</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>951.9864295006901</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1337.824525520585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>1914.691514651696</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2029.297224930789</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2029.297224930789</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2029.297224930789</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.297224930789</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>1801.206747336066</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1566.054639104323</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1311.817282376121</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1103.965782170588</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>896.2054834056346</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>644.0659310639641</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C13" t="n">
-        <v>644.0659310639641</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D13" t="n">
-        <v>493.9492916516283</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E13" t="n">
-        <v>346.0361980692352</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F13" t="n">
-        <v>324.9801324377098</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>156.9889085973923</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9889085973923</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>50.99064134900323</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K13" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>230.1506500142257</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>353.276724040951</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>481.3326611335758</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>579.2999565750212</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>644.0659310639641</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>644.0659310639641</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>644.0659310639641</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S13" t="n">
-        <v>644.0659310639641</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T13" t="n">
-        <v>644.0659310639641</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="U13" t="n">
-        <v>644.0659310639641</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="V13" t="n">
-        <v>644.0659310639641</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="W13" t="n">
-        <v>644.0659310639641</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="X13" t="n">
-        <v>644.0659310639641</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y13" t="n">
-        <v>644.0659310639641</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1789.46646912496</v>
+        <v>1190.127582679363</v>
       </c>
       <c r="C14" t="n">
-        <v>1420.503952184549</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="D14" t="n">
-        <v>1062.238253577798</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E14" t="n">
-        <v>676.4500009795538</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
-        <v>265.4640961899462</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>50.99064134900323</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>186.3894711936269</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>440.0557368508828</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>791.6529319622234</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>1648.887652554183</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2045.692679619748</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>2549.532067450162</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>2549.532067450162</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2549.532067450162</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2549.532067450162</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W14" t="n">
-        <v>2549.532067450162</v>
+        <v>2340.332512980376</v>
       </c>
       <c r="X14" t="n">
-        <v>2176.066309189082</v>
+        <v>1966.866754719296</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.066309189082</v>
+        <v>1576.727422743484</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>533.9606367248521</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>359.5076074437251</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>210.5731977824738</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>197.5251993221183</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>50.99064134900323</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>50.99064134900323</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>50.99064134900323</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>112.8154098726237</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>296.6386113086637</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>590.1341319866242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>951.9864295006905</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1337.824525520586</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>1914.691514651697</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2029.29722493079</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2029.29722493079</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2029.29722493079</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>1835.267715270074</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>1607.177237675351</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1372.025129443608</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1117.787772715407</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>909.936272509874</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>702.1759737449202</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>535.8311416996207</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C16" t="n">
-        <v>366.8949587717138</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D16" t="n">
-        <v>366.8949587717138</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E16" t="n">
-        <v>218.9818651893208</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F16" t="n">
-        <v>218.9818651893208</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G16" t="n">
-        <v>50.99064134900323</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>50.99064134900323</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>50.99064134900323</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>230.1506500142258</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>353.2767240409511</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>481.3326611335759</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>579.2999565750213</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>644.0659310639642</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>644.0659310639642</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S16" t="n">
-        <v>644.0659310639642</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T16" t="n">
-        <v>644.0659310639642</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U16" t="n">
-        <v>644.0659310639642</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="V16" t="n">
-        <v>644.0659310639642</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="W16" t="n">
-        <v>644.0659310639642</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="X16" t="n">
-        <v>644.0659310639642</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="Y16" t="n">
-        <v>644.0659310639642</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796265</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C17" t="n">
-        <v>921.7704558796265</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D17" t="n">
-        <v>921.7704558796265</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>921.7704558796265</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5552,13 +5554,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5588,7 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5701,22 +5703,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>723.6376486118401</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>723.6376486118401</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V19" t="n">
-        <v>468.9531604059532</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W19" t="n">
-        <v>468.9531604059532</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X19" t="n">
-        <v>468.9531604059532</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.1605812624231</v>
+        <v>182.687705739677</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1267.635416552713</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C20" t="n">
-        <v>1267.635416552713</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="D20" t="n">
-        <v>909.3697179459625</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="E20" t="n">
-        <v>523.5814653477182</v>
+        <v>1104.381705680818</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>693.3958008912109</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>278.3233507362074</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5780,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.97538618064</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y20" t="n">
-        <v>1654.235256616835</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5835,10 +5837,10 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992584</v>
@@ -5847,34 +5849,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218343</v>
+        <v>68.68979551592378</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>68.68979551592378</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>68.68979551592378</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
         <v>176.6457242372933</v>
@@ -5917,43 +5919,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438286</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V22" t="n">
-        <v>631.7841389438286</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W22" t="n">
-        <v>342.366968906868</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X22" t="n">
-        <v>114.3774180088506</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.3774180088506</v>
+        <v>250.3382603461635</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1175.300932605789</v>
+        <v>1969.42314369238</v>
       </c>
       <c r="C23" t="n">
-        <v>806.3384156653772</v>
+        <v>1600.460626751969</v>
       </c>
       <c r="D23" t="n">
-        <v>779.1681669784198</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E23" t="n">
-        <v>779.1681669784198</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
         <v>779.1681669784198</v>
@@ -5981,58 +5983,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V23" t="n">
-        <v>2678.274518176916</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W23" t="n">
-        <v>2325.505862906802</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X23" t="n">
-        <v>1952.040104645722</v>
+        <v>2746.162315732314</v>
       </c>
       <c r="Y23" t="n">
-        <v>1561.900772669911</v>
+        <v>2356.022983756502</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.2351809199101</v>
+        <v>2640.167115151077</v>
       </c>
       <c r="C25" t="n">
-        <v>675.2351809199101</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2351809199101</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E25" t="n">
-        <v>527.322087337517</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396066</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>856.8836457501499</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>856.8836457501499</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V25" t="n">
-        <v>856.8836457501499</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="W25" t="n">
-        <v>856.8836457501499</v>
+        <v>3042.608159124847</v>
       </c>
       <c r="X25" t="n">
-        <v>856.8836457501499</v>
+        <v>3042.608159124847</v>
       </c>
       <c r="Y25" t="n">
-        <v>856.8836457501499</v>
+        <v>2821.815579981317</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1519.135572818019</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C26" t="n">
-        <v>1519.135572818019</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.869874211268</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E26" t="n">
-        <v>775.0816216130238</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
         <v>364.0957168234162</v>
@@ -6224,10 +6226,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6251,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3248.516782863448</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3042.53903524767</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3042.53903524767</v>
       </c>
       <c r="V26" t="n">
-        <v>2648.643400128066</v>
+        <v>3042.53903524767</v>
       </c>
       <c r="W26" t="n">
-        <v>2295.874744857952</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="X26" t="n">
-        <v>2295.874744857952</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y26" t="n">
-        <v>1905.73541288214</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>751.950822890278</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>601.8341834779422</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>453.9210898955491</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>307.0311423976387</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>307.0311423976387</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
         <v>66.5121164321834</v>
@@ -6412,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1490.169958279062</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1131.904259672312</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>746.1160070740675</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>335.13010228446</v>
       </c>
       <c r="G29" t="n">
         <v>66.5121164321834</v>
@@ -6461,7 +6463,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6488,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W29" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>511.2489900899278</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C31" t="n">
-        <v>342.3128071620209</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>342.3128071620209</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>342.3128071620209</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>195.4228596641106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
         <v>66.5121164321834</v>
@@ -6652,19 +6654,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="Y31" t="n">
-        <v>692.8974549201675</v>
+        <v>149.1100998399243</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038042</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C32" t="n">
-        <v>1453.669719097631</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.40402049088</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6157678926361</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>709.6157678926361</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>294.5433177376325</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
@@ -6734,16 +6736,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102164</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2623.050455131166</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="C34" t="n">
-        <v>2623.050455131166</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="D34" t="n">
-        <v>2623.050455131166</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="E34" t="n">
-        <v>2623.050455131166</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="F34" t="n">
-        <v>2623.050455131166</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="G34" t="n">
-        <v>2623.050455131166</v>
+        <v>2599.855698536083</v>
       </c>
       <c r="H34" t="n">
-        <v>2476.833268349024</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I34" t="n">
         <v>2471.230932223169</v>
@@ -6883,25 +6885,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>3133.919937435996</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>2912.153322005523</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>2623.050455131166</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V34" t="n">
-        <v>2623.050455131166</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W34" t="n">
-        <v>2623.050455131166</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X34" t="n">
-        <v>2623.050455131166</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="Y34" t="n">
-        <v>2623.050455131166</v>
+        <v>2781.504163366323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2062.330773118628</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C35" t="n">
-        <v>1693.368256178216</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.942324366272</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2435.796531379708</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>2062.330773118628</v>
+        <v>1910.060003171043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2062.330773118628</v>
+        <v>1519.920671195231</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2769.260665217898</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="C37" t="n">
-        <v>2769.260665217898</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="D37" t="n">
-        <v>2619.144025805563</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="E37" t="n">
-        <v>2471.230932223169</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="F37" t="n">
-        <v>2471.230932223169</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q37" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S37" t="n">
-        <v>3280.130147522729</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T37" t="n">
-        <v>3058.363532092255</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U37" t="n">
-        <v>2769.260665217898</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V37" t="n">
-        <v>2769.260665217898</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="W37" t="n">
-        <v>2769.260665217898</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="X37" t="n">
-        <v>2769.260665217898</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="Y37" t="n">
-        <v>2769.260665217898</v>
+        <v>2533.219997888695</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1605.601998493312</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C38" t="n">
-        <v>1605.601998493312</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D38" t="n">
-        <v>1605.601998493312</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.813745895067</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>808.8278411054598</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>393.7553909504563</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W38" t="n">
-        <v>2755.806928794325</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X38" t="n">
-        <v>2382.341170533245</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y38" t="n">
-        <v>1992.201838557433</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
-        <v>3104.813242465641</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>2956.900148883248</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>2810.010201385338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>2642.307364760057</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>2568.556609404825</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>3325.605821609171</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X40" t="n">
-        <v>3325.605821609171</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y40" t="n">
-        <v>3104.813242465641</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1046.558481879034</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C41" t="n">
-        <v>677.5959649386225</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D41" t="n">
-        <v>677.5959649386225</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E41" t="n">
-        <v>291.8077123403783</v>
+        <v>731.3215358191806</v>
       </c>
       <c r="F41" t="n">
-        <v>291.8077123403783</v>
+        <v>320.335631029573</v>
       </c>
       <c r="G41" t="n">
-        <v>291.8077123403783</v>
+        <v>320.335631029573</v>
       </c>
       <c r="H41" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>239.8697723080287</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>573.6891459978751</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1024.723359246284</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1558.255263918209</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2105.034080976991</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2549.532067450162</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>2549.532067450162</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>2549.532067450162</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2549.532067450162</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W41" t="n">
-        <v>2196.763412180047</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X41" t="n">
-        <v>1823.297653918968</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y41" t="n">
-        <v>1433.158321943156</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>926.0223793979284</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C42" t="n">
-        <v>751.5693501168014</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D42" t="n">
-        <v>602.6349404555501</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E42" t="n">
-        <v>443.3974854500947</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F42" t="n">
-        <v>296.8629274769796</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G42" t="n">
-        <v>160.4998273095977</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H42" t="n">
-        <v>69.99793294746527</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I42" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>144.6679108396206</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>382.9321098199677</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L42" t="n">
-        <v>749.6302701326331</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M42" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.429638909403</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2081.390918327458</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2391.890509803561</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2549.532067450161</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2549.387714042676</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S42" t="n">
-        <v>2419.949827536156</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T42" t="n">
-        <v>2227.306827214012</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>1999.238980348427</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V42" t="n">
-        <v>1764.086872116685</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1509.849515388483</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
-        <v>1301.99801518295</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1094.237716417996</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.99064134900323</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C43" t="n">
-        <v>50.99064134900323</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D43" t="n">
-        <v>50.99064134900323</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>50.99064134900323</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>50.99064134900323</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>884.1951664662072</v>
+        <v>749.810573281298</v>
       </c>
       <c r="U43" t="n">
-        <v>595.0922995918507</v>
+        <v>749.810573281298</v>
       </c>
       <c r="V43" t="n">
-        <v>340.4078113859638</v>
+        <v>749.810573281298</v>
       </c>
       <c r="W43" t="n">
-        <v>50.99064134900323</v>
+        <v>749.810573281298</v>
       </c>
       <c r="X43" t="n">
-        <v>50.99064134900323</v>
+        <v>749.810573281298</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.99064134900323</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.46646912496</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C44" t="n">
-        <v>1420.503952184549</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D44" t="n">
-        <v>1062.238253577798</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E44" t="n">
-        <v>676.4500009795538</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F44" t="n">
-        <v>265.4640961899462</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G44" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>50.99064134900323</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>50.99064134900323</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>502.0248545974121</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>856.720051399182</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>1403.498868457964</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>1906.471339337301</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>2301.24570569448</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>2549.532067450162</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2549.532067450162</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="W44" t="n">
-        <v>2549.532067450162</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X44" t="n">
-        <v>2176.066309189082</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y44" t="n">
-        <v>2176.066309189082</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>926.0223793979292</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>751.5693501168022</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>602.6349404555509</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>443.3974854500954</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>296.8629274769804</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>160.4998273095977</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>69.99793294746527</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>144.6679108396211</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>382.932109819968</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>749.6302701326333</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.429638909404</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2081.390918327459</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2391.890509803562</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2549.532067450162</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2549.387714042677</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2419.949827536157</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2227.306827214013</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>1999.238980348428</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1764.086872116686</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1509.849515388484</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1301.998015182951</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1094.237716417997</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>218.6934779742843</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C46" t="n">
-        <v>218.6934779742843</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D46" t="n">
-        <v>218.6934779742843</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E46" t="n">
-        <v>218.6934779742843</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F46" t="n">
-        <v>218.6934779742843</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>905.3655307350048</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U46" t="n">
-        <v>655.0264310104109</v>
+        <v>639.016080675687</v>
       </c>
       <c r="V46" t="n">
-        <v>400.341942804524</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="W46" t="n">
-        <v>400.341942804524</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="X46" t="n">
-        <v>400.341942804524</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="Y46" t="n">
-        <v>400.341942804524</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
   </sheetData>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265.8932495277822</v>
+        <v>235.8877205747719</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>218.4267706822989</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>207.8369205319743</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>94.36637323394321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988651</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038146</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.89593232254956</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>4.37813005785722</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625680958</v>
+        <v>48.87899782081595</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>79.02279728521563</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>180.7516118579489</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784777</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.3148989349955578</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22741,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22796,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>1.769632077808012</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166637</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>15.26359063142544</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>67.23820498408307</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871001</v>
+        <v>104.3348437827356</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038146</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510927</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>221.0654014799587</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>61.6517423765507</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846314</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>36.70377383819955</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>48.87899782081593</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>79.0227972852156</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>101.2177245773848</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708666</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825412</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402845</v>
+        <v>0.3148989349955649</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22978,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709379</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515972</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,22 +23023,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>200.1003545949131</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543627</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059416</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753912</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>247.9252960539633</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.0817190166637</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
@@ -23075,13 +23077,13 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23118,10 +23120,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846314</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U9" t="n">
-        <v>60.69123123399618</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310506</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W9" t="n">
-        <v>64.1693959945994</v>
+        <v>101.9016670174836</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715727</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482797</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825412</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402845</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.6860405515972</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23230,7 +23232,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>171.5037272356653</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
@@ -23264,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.9691409186521</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>58.22524901108901</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.5205632426201</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23352,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>92.88584454571125</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.2867095848742</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.4690227430407</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0892145641079</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>124.5755430477211</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2933991810722</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8.242911051707722</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.85573157916966</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.7694211601826</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>194.7445699524669</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7688271957736</v>
+        <v>59.55223036870407</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2294860887793</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.1261226415114</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>66.11485303372848</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.6915663742737</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.704164525825</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0460904171307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>14.67838357283676</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23580,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>144.727561979649</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3400163777887</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>92.88584454571124</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>30.54219944928974</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.28670958487417</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.4690227430407</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.6795387112373</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2933991810722</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.9382845759051</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8.242911051707694</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.85573157916963</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.7694211601826</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.7445699524668</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7688271957736</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2274111152248</v>
+        <v>179.7382603152888</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>40.90013756250949</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>307.2767095024426</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>64.81814676751867</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,19 +23943,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>24.27208564188771</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>84.91464242633674</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.4063110663556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.4453316210368</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>144.2780603536662</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24178,22 +24180,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>327.7844954205951</v>
+        <v>330.4099222588428</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24263,10 +24265,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24415,22 +24417,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>156.1856228088145</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>258.4929558009378</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>32.869613429911</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>221.6603650905403</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>2.993599618358104</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>144.9899196596997</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24728,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>181.1251564493167</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>98.05997660827386</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>38.40417245942034</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24892,10 +24894,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>110.4338048678518</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,7 +24976,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>154.1943732987689</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25090,10 +25092,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>17.41649626453609</v>
       </c>
       <c r="I34" t="n">
-        <v>90.80610764524175</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>238.4313691268578</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>209.4348714989682</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>104.6566332501587</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>144.7481079858645</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25391,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>12.21385238715629</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25451,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>50.1895784159957</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>71.74176711264127</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>64.81814676751881</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>56.1988641058592</v>
+        <v>84.89941470883073</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,10 +25687,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25792,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25837,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>198.5902886500596</v>
+        <v>50.18328106465123</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>198.5930053609199</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>139.5326190389242</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26074,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>38.37612947826494</v>
+        <v>226.7085715907092</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337679</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.075833768</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337678</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732074.4812007229</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732074.4812007226</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777591.6108183697</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777591.6108183695</v>
+        <v>855506.541158749</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.6800963041</v>
+        <v>139242.6491112605</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.6800963042</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.6800963042</v>
+        <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="F2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318747</v>
@@ -26332,28 +26334,28 @@
         <v>296136.8796318745</v>
       </c>
       <c r="I2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="J2" t="n">
         <v>296136.8796318746</v>
-      </c>
-      <c r="J2" t="n">
-        <v>296136.8796318745</v>
       </c>
       <c r="K2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="L2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="M2" t="n">
         <v>296136.8796318745</v>
       </c>
-      <c r="M2" t="n">
-        <v>296136.8796318746</v>
-      </c>
       <c r="N2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="O2" t="n">
-        <v>269166.3268217432</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="P2" t="n">
-        <v>269166.3268217433</v>
+        <v>296136.8796318745</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>43803.80384074451</v>
       </c>
       <c r="E3" t="n">
-        <v>442006.5628979785</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>176272.847277912</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>38421.40650613399</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>10295.6067490487</v>
       </c>
       <c r="M3" t="n">
-        <v>112106.2709100169</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723343</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723343</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723343</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>449.9968236586044</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>449.9968236586045</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.8004116136</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.8004116136</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>59058.54363117637</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>59058.54363117638</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26488,7 +26490,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26503,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="O5" t="n">
-        <v>62510.01949817636</v>
-      </c>
       <c r="P5" t="n">
-        <v>62510.01949817636</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-498504.8229542275</v>
+        <v>-457239.097790851</v>
       </c>
       <c r="C6" t="n">
-        <v>92852.07956661822</v>
+        <v>85416.3371842794</v>
       </c>
       <c r="D6" t="n">
-        <v>92852.07956661822</v>
+        <v>49048.27572587357</v>
       </c>
       <c r="E6" t="n">
-        <v>-248104.7060141019</v>
+        <v>-405888.7515521926</v>
       </c>
       <c r="F6" t="n">
-        <v>193901.8568838765</v>
+        <v>221245.8920814752</v>
       </c>
       <c r="G6" t="n">
-        <v>44973.04480356327</v>
+        <v>221245.8920814752</v>
       </c>
       <c r="H6" t="n">
         <v>221245.8920814751</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.8920814752</v>
+        <v>221245.8920814751</v>
       </c>
       <c r="J6" t="n">
-        <v>172180.9473529304</v>
+        <v>182824.4855753412</v>
       </c>
       <c r="K6" t="n">
         <v>221245.8920814752</v>
       </c>
       <c r="L6" t="n">
+        <v>210950.2853324265</v>
+      </c>
+      <c r="M6" t="n">
+        <v>60789.45021359765</v>
+      </c>
+      <c r="N6" t="n">
+        <v>221245.8920814752</v>
+      </c>
+      <c r="O6" t="n">
+        <v>221245.892081475</v>
+      </c>
+      <c r="P6" t="n">
         <v>221245.8920814751</v>
-      </c>
-      <c r="M6" t="n">
-        <v>109139.6211714582</v>
-      </c>
-      <c r="N6" t="n">
-        <v>221245.8920814751</v>
-      </c>
-      <c r="O6" t="n">
-        <v>206163.387548825</v>
-      </c>
-      <c r="P6" t="n">
-        <v>206163.3875488251</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129049</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>931.4521195382529</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>931.4521195382531</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887087</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26820,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36.39307775568375</v>
       </c>
       <c r="E3" t="n">
-        <v>382.982178625348</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158.3245810550452</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>40.67946607761121</v>
       </c>
       <c r="E4" t="n">
-        <v>449.8574296962203</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>194.0184385397524</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761121</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962204</v>
+        <v>643.875868235973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761121</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962203</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>194.0184385397524</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>238.7894450985626</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936719</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077003</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043124</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655545</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470276</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622682</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151094</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619226</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924586</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590853</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340084</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621744</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405034</v>
+        <v>199.755999762353</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975332</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829656</v>
+        <v>278.187833172042</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292675</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936716</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550081</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820373</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620021</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639164</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114199</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682167</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784864</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647913</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147604</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181397</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31689,31 +31691,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647913</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.744531133822119</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>38.34867947425579</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>317.8123993192354</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>476.3184022139258</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>590.9150969006346</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>657.5069024517437</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>668.1460515357159</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>630.9113700737721</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>538.4682577075384</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>404.3672364775337</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>235.2174038349539</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>85.32850321197162</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.39168503830633</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2995624907057695</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.003500785421902</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>68.98018055071024</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>323.5214404249043</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>435.0145016768039</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>507.6414051483478</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>521.0771626084799</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>476.6838030999208</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>382.5807771741175</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>37.21414836079715</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.075514130713717</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1318092621988094</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.67966775654439</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.93377332636741</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>50.51219035135313</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>118.7525103876884</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>249.7207862775178</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>263.295555691772</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>257.0349758719249</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>237.4134025341108</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>203.1481803006051</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.6492700502762</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>75.52397021698684</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.176762232507848</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09161824126605776</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.74453113382212</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>38.3486794742558</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>317.8123993192355</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>476.3184022139259</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>590.9150969006347</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>657.5069024517438</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>668.146051535716</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>630.9113700737722</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>538.4682577075386</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>404.3672364775338</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>235.217403834954</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>85.32850321197165</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>16.39168503830634</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2995624907057696</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.003500785421903</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>68.98018055071026</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>323.5214404249044</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>435.014501676804</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>507.6414051483479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>521.07716260848</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>476.6838030999209</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>382.5807771741176</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>37.21414836079716</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>8.075514130713719</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1318092621988095</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.679667756544391</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.93377332636741</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>50.51219035135315</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>118.7525103876884</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>249.7207862775179</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>263.2955556917721</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>257.034975871925</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>237.4134025341109</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>203.1481803006051</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.6492700502762</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>75.52397021698685</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>7.17676223250785</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09161824126605778</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33746,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -34144,16 +34146,16 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>679.0860765461017</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>215.5855378141321</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806951</v>
@@ -34366,16 +34368,16 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
         <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>588.6242097947171</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
         <v>781.7148990095023</v>
@@ -34390,7 +34392,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>107.4477330152293</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076504</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868166</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.3822424078835</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973022</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197549</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405815</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916007</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406599</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781537</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>61.20161998247882</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996323</v>
+        <v>146.8461210887087</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848231</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855708</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765005</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646086</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061163</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520835</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400609</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973022</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916007</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.7664947925491</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>256.2285511689452</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>355.1486819306473</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>427.160669224471</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>438.7329879391249</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>400.8131586520853</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>307.2352619522689</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>182.0615466030842</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>19.63186602082178</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.44926113497019</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>185.6800014505453</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>296.4601218969297</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>365.5073712263294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>389.7354505251466</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>334.0875586554764</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>248.6063697597873</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.763343716255</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>66.13359572616739</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>124.3697717441669</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>129.3494314066917</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
-        <v>98.95686408226803</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>65.42017625145746</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>136.7664947925492</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>256.2285511689453</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>355.1486819306475</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>427.1606692244711</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>438.7329879391251</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>400.8131586520855</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>307.235261952269</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>182.0615466030843</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>19.63186602082183</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.44926113497021</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>185.6800014505454</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>296.4601218969298</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>365.5073712263296</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>389.7354505251467</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>334.0875586554765</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>248.6063697597874</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.7633437162551</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>66.13359572616741</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>124.369771744167</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>129.3494314066918</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>98.95686408226808</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>65.42017625145752</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37792,16 +37794,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>448.987865124415</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>358.2779765674444</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457896.9318625614</v>
+        <v>399383.5293367552</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347745</v>
+        <v>8547013.05951393</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612872.176815497</v>
+        <v>8673692.685730744</v>
       </c>
     </row>
     <row r="11">
@@ -658,31 +658,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36.74532229879934</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880639</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.70122005612006</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345809</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>52.04897529147635</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>149.7933161434364</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>21.41405905276474</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>129.3420634549345</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.8461210887087</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>146.8461210887087</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>146.8461210887087</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="6">
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354543</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827334</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345809</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S6" t="n">
-        <v>114.5204773083663</v>
+        <v>92.73964154763159</v>
       </c>
       <c r="T6" t="n">
-        <v>146.8461210887087</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U6" t="n">
-        <v>146.8461210887087</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.41405905276473</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>116.8405921356987</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>187.5255871663204</v>
       </c>
     </row>
     <row r="9">
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>7.527456720693102</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="W9" t="n">
-        <v>149.793316143436</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>78.96122915360965</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>193.6959022530807</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541850957</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>53.54735467376771</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>159.9967189074651</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>289.3265275022418</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>334.5625851445762</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>169.0674053960534</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>106.4735778903241</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.8337041009711</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>173.5578851713653</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933827</v>
       </c>
       <c r="G18" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>115.0138334144186</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>59.24654969937814</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>209.6931219609837</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>108.9812949757285</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.155902292902955</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>42.5504680152957</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>24.27311936184012</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>17.77662268072246</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>28.03004253565322</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>182.1351610849561</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>76.31814835826484</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>20.95866062610961</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>149.9901675479393</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>305.9840058034983</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>265.9318059937538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2930,7 +2930,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V30" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.77200357366344</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>100.1807332411792</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>58.02202654638105</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>173.5578851713661</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>82.2895372226438</v>
       </c>
       <c r="H34" t="n">
-        <v>127.3385186497847</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>160.2962291795008</v>
+        <v>278.3199615710141</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>61.36917500886953</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>76.1288311097759</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>177.2776744015458</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>299.0513903014173</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3635,7 +3635,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U39" t="n">
         <v>225.7871683969286</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>221.7048515690722</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>209.7083496784897</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>193.695902253083</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>169.365668211518</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>188.2196394312107</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>61.41699360806091</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>12.40418031676299</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>59.50326661490367</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.9116580139103</v>
+        <v>520.5803211678664</v>
       </c>
       <c r="C2" t="n">
-        <v>203.5822427727904</v>
+        <v>520.5803211678664</v>
       </c>
       <c r="D2" t="n">
-        <v>55.25282753167056</v>
+        <v>520.5803211678664</v>
       </c>
       <c r="E2" t="n">
-        <v>55.25282753167056</v>
+        <v>520.5803211678664</v>
       </c>
       <c r="F2" t="n">
-        <v>55.25282753167056</v>
+        <v>331.1605361513813</v>
       </c>
       <c r="G2" t="n">
-        <v>55.25282753167056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>55.25282753167056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>18.13634036116618</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709669</v>
+        <v>21.03371160678511</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183017</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458395</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066255</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588563</v>
+        <v>509.4952041123836</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735306</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548346</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U2" t="n">
-        <v>500.2410732550301</v>
+        <v>710.0001061843515</v>
       </c>
       <c r="V2" t="n">
-        <v>500.2410732550301</v>
+        <v>710.0001061843515</v>
       </c>
       <c r="W2" t="n">
-        <v>500.2410732550301</v>
+        <v>710.0001061843515</v>
       </c>
       <c r="X2" t="n">
-        <v>500.2410732550301</v>
+        <v>710.0001061843515</v>
       </c>
       <c r="Y2" t="n">
-        <v>500.2410732550301</v>
+        <v>520.5803211678664</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="C3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="E3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616815</v>
+        <v>67.13418877024228</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415666</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>286.538206975247</v>
+        <v>338.7690911140249</v>
       </c>
       <c r="N3" t="n">
-        <v>392.911462660324</v>
+        <v>512.5000587546608</v>
       </c>
       <c r="O3" t="n">
-        <v>511.1831359408227</v>
+        <v>649.2101578476356</v>
       </c>
       <c r="P3" t="n">
-        <v>586.7735145200479</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>509.310657927099</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>360.9812426859792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T3" t="n">
-        <v>212.6518274448593</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U3" t="n">
-        <v>64.32241220373947</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V3" t="n">
-        <v>11.74768968709669</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="W3" t="n">
-        <v>11.74768968709669</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="X3" t="n">
-        <v>11.74768968709669</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296049</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>14.1259580354324</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510269</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665703</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142.396238631475</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C5" t="n">
-        <v>142.396238631475</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D5" t="n">
-        <v>142.396238631475</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E5" t="n">
-        <v>142.396238631475</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F5" t="n">
-        <v>142.396238631475</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G5" t="n">
-        <v>142.396238631475</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H5" t="n">
-        <v>142.396238631475</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709669</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183024</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458396</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066257</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588562</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735306</v>
+        <v>649.4845259985593</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548346</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548346</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548346</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S5" t="n">
-        <v>439.0550691137148</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T5" t="n">
-        <v>290.7256538725949</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U5" t="n">
-        <v>142.396238631475</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="V5" t="n">
-        <v>142.396238631475</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="W5" t="n">
-        <v>142.396238631475</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="X5" t="n">
-        <v>142.396238631475</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="Y5" t="n">
-        <v>142.396238631475</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96.9745776384288</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C6" t="n">
-        <v>96.9745776384288</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D6" t="n">
-        <v>96.9745776384288</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E6" t="n">
-        <v>96.9745776384288</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F6" t="n">
-        <v>96.9745776384288</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G6" t="n">
-        <v>96.9745776384288</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H6" t="n">
-        <v>96.9745776384288</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I6" t="n">
-        <v>34.75265173585765</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616815</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L6" t="n">
-        <v>111.9554248488222</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>247.5338027825025</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N6" t="n">
-        <v>392.9114626603241</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408228</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P6" t="n">
-        <v>586.773514520048</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548346</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R6" t="n">
-        <v>509.3106579270992</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="S6" t="n">
-        <v>393.6334081206685</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="T6" t="n">
-        <v>245.3039928795487</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="U6" t="n">
-        <v>96.9745776384288</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="V6" t="n">
-        <v>96.9745776384288</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="W6" t="n">
-        <v>96.9745776384288</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X6" t="n">
-        <v>96.9745776384288</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y6" t="n">
-        <v>96.9745776384288</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L7" t="n">
-        <v>14.1259580354324</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510269</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665703</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="W7" t="n">
-        <v>33.37805236665703</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="X7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.37805236665703</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897909</v>
       </c>
       <c r="C8" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897909</v>
       </c>
       <c r="D8" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897909</v>
       </c>
       <c r="E8" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897909</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="G8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079193</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644765</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123842</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985598</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020283</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652816</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262274</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652795</v>
+        <v>511.8624171433455</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652795</v>
+        <v>511.8624171433455</v>
       </c>
       <c r="U8" t="n">
-        <v>560.6825636487947</v>
+        <v>511.8624171433455</v>
       </c>
       <c r="V8" t="n">
-        <v>560.6825636487947</v>
+        <v>393.8416170062761</v>
       </c>
       <c r="W8" t="n">
-        <v>371.26277863231</v>
+        <v>393.8416170062761</v>
       </c>
       <c r="X8" t="n">
-        <v>371.26277863231</v>
+        <v>393.8416170062761</v>
       </c>
       <c r="Y8" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.53661367296053</v>
+        <v>181.8429936158249</v>
       </c>
       <c r="C9" t="n">
-        <v>30.53661367296053</v>
+        <v>181.8429936158249</v>
       </c>
       <c r="D9" t="n">
-        <v>30.53661367296053</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E9" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="F9" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="G9" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="H9" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024229</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140249</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546608</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476356</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017072</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="T9" t="n">
-        <v>560.6825636487947</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="U9" t="n">
-        <v>371.26277863231</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="V9" t="n">
-        <v>181.8429936158252</v>
+        <v>181.8429936158249</v>
       </c>
       <c r="W9" t="n">
-        <v>30.53661367296053</v>
+        <v>181.8429936158249</v>
       </c>
       <c r="X9" t="n">
-        <v>30.53661367296053</v>
+        <v>181.8429936158249</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.53661367296053</v>
+        <v>181.8429936158249</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230189</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517074</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396367</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829028</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829028</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829028</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829028</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829028</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829028</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829028</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829028</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330563</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330563</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1311.909787855437</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C11" t="n">
-        <v>1311.909787855437</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1311.909787855437</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2609.016021139986</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.509627919559</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5135,37 +5135,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>477.7578170212613</v>
+        <v>120.6003534763932</v>
       </c>
       <c r="C13" t="n">
-        <v>477.7578170212613</v>
+        <v>120.6003534763932</v>
       </c>
       <c r="D13" t="n">
-        <v>477.7578170212613</v>
+        <v>120.6003534763932</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>120.6003534763932</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>120.6003534763932</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>120.6003534763932</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T13" t="n">
-        <v>477.7578170212613</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U13" t="n">
-        <v>477.7578170212613</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="V13" t="n">
-        <v>477.7578170212613</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="W13" t="n">
-        <v>477.7578170212613</v>
+        <v>120.6003534763932</v>
       </c>
       <c r="X13" t="n">
-        <v>477.7578170212613</v>
+        <v>120.6003534763932</v>
       </c>
       <c r="Y13" t="n">
-        <v>477.7578170212613</v>
+        <v>120.6003534763932</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1190.127582679363</v>
+        <v>1517.887535471214</v>
       </c>
       <c r="C14" t="n">
-        <v>821.1650657389509</v>
+        <v>1517.887535471214</v>
       </c>
       <c r="D14" t="n">
-        <v>821.1650657389509</v>
+        <v>1159.621836864463</v>
       </c>
       <c r="E14" t="n">
-        <v>821.1650657389509</v>
+        <v>773.8335842662191</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>773.8335842662191</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>358.7611341112155</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V14" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W14" t="n">
-        <v>2340.332512980376</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X14" t="n">
-        <v>1966.866754719296</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y14" t="n">
-        <v>1576.727422743484</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5372,13 +5372,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>310.0549803959803</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C16" t="n">
-        <v>310.0549803959803</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D16" t="n">
-        <v>310.0549803959803</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E16" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F16" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T16" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U16" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="V16" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="W16" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="X16" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="Y16" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877102</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1689.318139675982</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C17" t="n">
-        <v>1320.35562273557</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>1067.881466499386</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>656.8955617097781</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>241.8231115547746</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W17" t="n">
-        <v>2424.744041450754</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.744041450754</v>
+        <v>2599.371408077975</v>
       </c>
       <c r="Y17" t="n">
-        <v>2034.604709474942</v>
+        <v>2209.232076102163</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,31 +5612,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218343</v>
+        <v>445.4099384687676</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218343</v>
+        <v>276.4737555408607</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>126.357116128525</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V19" t="n">
-        <v>920.887005818185</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W19" t="n">
-        <v>631.4698357812244</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="X19" t="n">
-        <v>403.4802848832071</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.687705739677</v>
+        <v>445.4099384687676</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1859.132475219474</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>1490.169958279063</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>1490.169958279063</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.381705680818</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F20" t="n">
-        <v>693.3958008912109</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G20" t="n">
-        <v>278.3233507362074</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5770,7 +5770,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X20" t="n">
-        <v>2635.871647259408</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y20" t="n">
-        <v>2245.732315283596</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992584</v>
@@ -5849,34 +5849,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.68979551592378</v>
+        <v>696.2582702654239</v>
       </c>
       <c r="C22" t="n">
-        <v>68.68979551592378</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D22" t="n">
-        <v>68.68979551592378</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X22" t="n">
-        <v>471.1308394896936</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y22" t="n">
-        <v>250.3382603461635</v>
+        <v>877.9067350956636</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1969.42314369238</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="C23" t="n">
-        <v>1600.460626751969</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6004,7 +6004,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3307.649637083189</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3101.671889467411</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993394</v>
+        <v>3101.671889467411</v>
       </c>
       <c r="V23" t="n">
-        <v>3119.628073993394</v>
+        <v>2770.609002123841</v>
       </c>
       <c r="W23" t="n">
-        <v>3119.628073993394</v>
+        <v>2417.840346853726</v>
       </c>
       <c r="X23" t="n">
-        <v>2746.162315732314</v>
+        <v>2044.374588592646</v>
       </c>
       <c r="Y23" t="n">
-        <v>2356.022983756502</v>
+        <v>1654.235256616835</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2640.167115151077</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V25" t="n">
-        <v>3070.921333403285</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W25" t="n">
-        <v>3042.608159124847</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X25" t="n">
-        <v>3042.608159124847</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="Y25" t="n">
-        <v>2821.815579981317</v>
+        <v>87.6824807009811</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2303.170539913434</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="C26" t="n">
-        <v>1934.208022973022</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>1047.26118400686</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>661.4729314086153</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>250.4870266190077</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
         <v>66.5121164321834</v>
@@ -6226,10 +6226,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3248.516782863448</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3042.53903524767</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>3042.53903524767</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>3042.53903524767</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2689.770379977556</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>2689.770379977556</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y26" t="n">
-        <v>2689.770379977556</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="27">
@@ -6411,13 +6411,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T28" t="n">
-        <v>899.7166415493873</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U28" t="n">
-        <v>610.6137746750309</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V28" t="n">
         <v>355.929286469144</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1859.132475219474</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C29" t="n">
-        <v>1490.169958279062</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D29" t="n">
-        <v>1131.904259672312</v>
+        <v>790.659319924054</v>
       </c>
       <c r="E29" t="n">
-        <v>746.1160070740675</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F29" t="n">
-        <v>335.13010228446</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>3009.337405520487</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W29" t="n">
-        <v>3009.337405520487</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X29" t="n">
-        <v>2635.871647259407</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y29" t="n">
-        <v>2245.732315283596</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>819.69434597861</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438285</v>
+        <v>819.69434597861</v>
       </c>
       <c r="V31" t="n">
-        <v>377.0996507379416</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="W31" t="n">
-        <v>377.0996507379416</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="X31" t="n">
-        <v>149.1100998399243</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.1100998399243</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1647.321240915451</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C32" t="n">
-        <v>1278.358723975039</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>879.7731733615581</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V32" t="n">
-        <v>3150.294826486578</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W32" t="n">
-        <v>2797.526171216464</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X32" t="n">
-        <v>2424.060412955384</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y32" t="n">
-        <v>2033.921080979572</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2599.855698536083</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="C34" t="n">
-        <v>2599.855698536083</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="D34" t="n">
-        <v>2599.855698536083</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="E34" t="n">
-        <v>2599.855698536083</v>
+        <v>296.522808599431</v>
       </c>
       <c r="F34" t="n">
-        <v>2599.855698536083</v>
+        <v>149.6328611015206</v>
       </c>
       <c r="G34" t="n">
-        <v>2599.855698536083</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V34" t="n">
-        <v>3070.921333403283</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W34" t="n">
-        <v>2781.504163366323</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="X34" t="n">
-        <v>2781.504163366323</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="Y34" t="n">
-        <v>2781.504163366323</v>
+        <v>444.4359021818241</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1133.32083113111</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="C35" t="n">
-        <v>764.3583141906979</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D35" t="n">
-        <v>406.0926155839475</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E35" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F35" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X35" t="n">
-        <v>1910.060003171043</v>
+        <v>2044.374588592646</v>
       </c>
       <c r="Y35" t="n">
-        <v>1519.920671195231</v>
+        <v>1654.235256616835</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2533.219997888695</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C37" t="n">
-        <v>2533.219997888695</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D37" t="n">
-        <v>2533.219997888695</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>2533.219997888695</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>2533.219997888695</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193526</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763052</v>
+        <v>843.989196616391</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888695</v>
+        <v>843.989196616391</v>
       </c>
       <c r="V37" t="n">
-        <v>2533.219997888695</v>
+        <v>589.3047084105042</v>
       </c>
       <c r="W37" t="n">
-        <v>2533.219997888695</v>
+        <v>589.3047084105042</v>
       </c>
       <c r="X37" t="n">
-        <v>2533.219997888695</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="Y37" t="n">
-        <v>2533.219997888695</v>
+        <v>361.3151575124868</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1303.529887077737</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C38" t="n">
-        <v>934.5673701373257</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D38" t="n">
-        <v>934.5673701373257</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
         <v>108.5090151927147</v>
@@ -7174,7 +7174,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3036.246795154906</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="V38" t="n">
-        <v>2755.806928794324</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="W38" t="n">
-        <v>2453.73481737875</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X38" t="n">
-        <v>2080.269059117671</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y38" t="n">
-        <v>1690.129727141859</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="39">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.5121164321834</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C40" t="n">
-        <v>66.5121164321834</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D40" t="n">
         <v>66.5121164321834</v>
@@ -7362,22 +7362,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181849</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="W40" t="n">
-        <v>696.9427113039706</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="X40" t="n">
-        <v>468.9531604059532</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.1605812624231</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1844.338003964587</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C41" t="n">
-        <v>1475.375487024175</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1117.109788417425</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>731.3215358191806</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>320.335631029573</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>320.335631029573</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.5429342656</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W41" t="n">
-        <v>2994.5429342656</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X41" t="n">
-        <v>2621.07717600452</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y41" t="n">
-        <v>2230.937844028709</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>529.0179941377679</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>529.0179941377679</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
         <v>529.0179941377679</v>
@@ -7560,16 +7560,16 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7578,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>749.810573281298</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U43" t="n">
-        <v>749.810573281298</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V43" t="n">
-        <v>749.810573281298</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W43" t="n">
-        <v>749.810573281298</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X43" t="n">
-        <v>749.810573281298</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y43" t="n">
-        <v>529.0179941377679</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1632.511388127729</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.548871187317</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D44" t="n">
-        <v>905.2831725805665</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E44" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V44" t="n">
-        <v>3135.484973698856</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W44" t="n">
-        <v>2782.716318428742</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X44" t="n">
-        <v>2409.250560167662</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y44" t="n">
-        <v>2019.11122819185</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,10 +7742,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>384.3315924698002</v>
+        <v>692.8974549201669</v>
       </c>
       <c r="C46" t="n">
-        <v>384.3315924698002</v>
+        <v>523.96127199226</v>
       </c>
       <c r="D46" t="n">
-        <v>234.2149530574644</v>
+        <v>373.8446325799242</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574644</v>
+        <v>225.9315389975311</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>79.04159149962075</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T46" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U46" t="n">
-        <v>639.016080675687</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V46" t="n">
-        <v>384.3315924698002</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W46" t="n">
-        <v>384.3315924698002</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X46" t="n">
-        <v>384.3315924698002</v>
+        <v>692.8974549201669</v>
       </c>
       <c r="Y46" t="n">
-        <v>384.3315924698002</v>
+        <v>692.8974549201669</v>
       </c>
     </row>
   </sheetData>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>218.4267706822989</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>207.8369205319743</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753912</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>94.36637323394321</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>211.4680405089103</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897334</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354543</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827334</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
-        <v>4.37813005785722</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>48.87899782081595</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>79.02279728521563</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>180.7516118579489</v>
+        <v>45.27499998310506</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715727</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>55.88937963386795</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818782</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3148989349955578</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474393</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>26.04487966482527</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.1813952927055</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>234.0491352390155</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>1.769632077808012</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880639</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S5" t="n">
-        <v>15.26359063142544</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>67.23820498408307</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>104.3348437827356</v>
+        <v>85.99672338893558</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038147</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510928</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897334</v>
       </c>
     </row>
     <row r="6">
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,19 +22913,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>36.70377383819955</v>
+        <v>57.030603143318</v>
       </c>
       <c r="T6" t="n">
-        <v>48.87899782081593</v>
+        <v>7.884010625681015</v>
       </c>
       <c r="U6" t="n">
-        <v>79.0227972852156</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310506</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818782</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3148989349955649</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474393</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>26.04487966482527</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.1813952927055</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346023</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>200.1003545949131</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.350458575391</v>
       </c>
       <c r="G8" t="n">
         <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871046</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>210.9116663344362</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897332</v>
       </c>
     </row>
     <row r="9">
@@ -23105,10 +23105,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>139.9176088439457</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23120,10 +23120,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681384</v>
+        <v>7.884010625680816</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377106</v>
+        <v>38.33818124377052</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>45.27499998310486</v>
       </c>
       <c r="W9" t="n">
-        <v>101.9016670174836</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>114.7859889482797</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821562</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.9691409186521</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>176.0351984253883</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>91.20766024055308</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>59.55223036870407</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.281236885078727</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>14.67838357283676</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>10.76457478588392</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>179.7382603152888</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40.90013756250949</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>121.0498792159552</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.81814676751867</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>87.18741294719104</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23949,13 +23949,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>84.91464242633674</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>277.2566436803251</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>144.2780603536662</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>176.0341853367991</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>330.4099222588428</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>91.41113910745338</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>158.8733195558276</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24420,19 +24420,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>258.4929558009378</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>228.7865645684974</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>32.869613429911</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24651,16 +24651,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>198.5902886500596</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>102.1474757758887</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>75.94636426876343</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>144.9899196596997</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.05997660827386</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24891,10 +24891,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>119.36821603499</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>323.9083435258808</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>154.1943732987689</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>83.73627103638442</v>
       </c>
       <c r="H34" t="n">
-        <v>17.41649626453609</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25128,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>209.4348714989682</v>
+        <v>91.41113910745491</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>104.6566332501587</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>143.4201181663933</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>26.64029573807431</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>50.1895784159957</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25602,7 +25602,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>87.99673643490007</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>64.81814676751881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>84.89941470883073</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>176.0351984253861</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>50.18328106465123</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>214.1238107588402</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>139.5326190389242</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>308.3141070704081</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>153.6216279422652</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>226.7085715907092</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402256.5418769753</v>
+        <v>433263.0758337679</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402256.5418769753</v>
+        <v>433263.0758337678</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337677</v>
+        <v>433263.0758337679</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587486</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587487</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587487</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139242.6491112605</v>
+        <v>149975.6800963042</v>
       </c>
       <c r="C2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.6800963042</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.680096304</v>
+        <v>149975.6800963042</v>
       </c>
       <c r="E2" t="n">
         <v>296136.8796318745</v>
       </c>
       <c r="F2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="G2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="G2" t="n">
-        <v>296136.8796318747</v>
-      </c>
       <c r="H2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="I2" t="n">
         <v>296136.8796318745</v>
       </c>
       <c r="J2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="K2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="L2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="M2" t="n">
         <v>296136.8796318745</v>
       </c>
       <c r="N2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="O2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="P2" t="n">
         <v>296136.8796318745</v>
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751304</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074451</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336676</v>
+        <v>627134.6436336668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.533686599941575e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613399</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.6067490487</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>160456.4418678771</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602628</v>
+        <v>137.8001180723343</v>
       </c>
       <c r="C4" t="n">
-        <v>107.1921479602628</v>
+        <v>137.8001180723343</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723343</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26447,7 +26447,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="M4" t="n">
         <v>584.6469890061231</v>
@@ -26459,7 +26459,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061228</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.8004116136</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26496,13 +26496,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457239.097790851</v>
+        <v>-510698.8849732621</v>
       </c>
       <c r="C6" t="n">
-        <v>85416.3371842794</v>
+        <v>80658.01754758359</v>
       </c>
       <c r="D6" t="n">
-        <v>49048.27572587357</v>
+        <v>80658.01754758359</v>
       </c>
       <c r="E6" t="n">
-        <v>-405888.7515521926</v>
+        <v>-409962.7469303613</v>
       </c>
       <c r="F6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="G6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033053</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033053</v>
       </c>
       <c r="J6" t="n">
-        <v>182824.4855753412</v>
+        <v>168106.9519747608</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="L6" t="n">
-        <v>210950.2853324265</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="M6" t="n">
-        <v>60789.45021359765</v>
+        <v>56715.45483542837</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="O6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033058</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887087</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663204</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022929</v>
@@ -26816,22 +26816,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568375</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>541.3067596803929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761121</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359719</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887083</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761121</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>643.8758682359718</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761121</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359719</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766335</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154184</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871684</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270567</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>367.321225669551</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961053</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611125</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339632</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645457</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986736</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206853</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>238.7894450985626</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628875</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5989153332807</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050586</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297035</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864955</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793585</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120829</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674034</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910842</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766335</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154184</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871684</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270567</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N5" t="n">
-        <v>367.321225669551</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961053</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611125</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339632</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645457</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986736</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L6" t="n">
-        <v>199.755999762353</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206853</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N6" t="n">
-        <v>278.187833172042</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332807</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050586</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297035</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864955</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793585</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120829</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674034</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910842</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31691,31 +31691,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N10" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563583</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043784</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718112</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729601</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040804</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.0183145243146</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559581</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>136.947856498667</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>107.4477330152293</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469684</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679318</v>
+        <v>91.30185944855722</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6171412472592124</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945162</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394228</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>13.6224856581357</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043784</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718112</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729601</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040804</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.0183145243146</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L6" t="n">
-        <v>61.20161998247882</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>136.947856498667</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887087</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469684</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679318</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472592124</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945162</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394228</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N7" t="n">
-        <v>13.6224856581357</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.5293367552</v>
+        <v>450275.6437737596</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.05951393</v>
+        <v>8636206.831769031</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730744</v>
+        <v>8627903.240604855</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U2" t="n">
-        <v>39.70122005612006</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>129.3420634549346</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>129.3420634549345</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>149.7933161434364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>52.2159462544348</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U5" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663202</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663202</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>27.24777913943943</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846314</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>92.73964154763159</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>36.43383855780544</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663204</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.0817190166637</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>178.8948621820424</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>116.8405921356987</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>20.10332478271062</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>7.527456720693102</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663204</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663204</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663204</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>30.96855708844532</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>193.6959022530807</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541850957</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>53.54735467376771</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>127.6752559270057</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>289.3265275022418</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>137.9991088190076</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.0674053960534</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>113.6610168227334</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>400.510464344202</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>173.5578851713653</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1934,13 +1934,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247745</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>20.75019519330523</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>59.24654969937814</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>297.9272583510162</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>108.9812949757285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>132.6182532445036</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.5504680152957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>337.2533643467237</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.77662268072246</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.95866062610969</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>182.1351610849561</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2617,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>273.0327157765983</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H27" t="n">
         <v>89.59687541851115</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>149.9901675479393</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>15.4833579141013</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>305.9840058034983</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>329.7760087079218</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>36.56683445190902</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>100.1807332411792</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>61.03068881011991</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>58.02202654638105</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>82.2895372226438</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>154.5952003645345</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>271.8706576045856</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>278.3199615710141</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>76.1288311097759</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>59.50286836346318</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>177.2776744015458</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>277.3039539762342</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>131.5522128412696</v>
       </c>
       <c r="T40" t="n">
-        <v>131.5522128412691</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>249.7858391833439</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>193.695902253083</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851187</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>43.5843341265808</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>72.0880274467727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>61.41699360806091</v>
+        <v>95.53495267724348</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.40418031676299</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>38.86021123270922</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>520.5803211678664</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C2" t="n">
-        <v>520.5803211678664</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D2" t="n">
-        <v>520.5803211678664</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E2" t="n">
-        <v>520.5803211678664</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513813</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678511</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>141.3070323458398</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>271.1217663066259</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123836</v>
+        <v>407.6508467588563</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652808</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="U2" t="n">
-        <v>710.0001061843515</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="V2" t="n">
-        <v>710.0001061843515</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="W2" t="n">
-        <v>710.0001061843515</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="X2" t="n">
-        <v>710.0001061843515</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="Y2" t="n">
-        <v>520.5803211678664</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.53661367296049</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296049</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296049</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296049</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296049</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296049</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296049</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296049</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024228</v>
+        <v>12.97238670821021</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>112.5663946836087</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140249</v>
+        <v>248.144772617289</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546608</v>
+        <v>393.5224324951106</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476356</v>
+        <v>511.7941057756093</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652808</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652808</v>
+        <v>456.7359354104562</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652808</v>
+        <v>308.4065201693364</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487957</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323106</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158256</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.53661367296049</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230187</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829027</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330562</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>13.34259413586626</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>64.08111238184313</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079186</v>
+        <v>163.9284927306049</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644759</v>
+        <v>306.6973793432473</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123835</v>
+        <v>456.3902241803908</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985593</v>
+        <v>584.4056715233288</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020275</v>
+        <v>659.1628932295215</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652808</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652808</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652808</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652808</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="U5" t="n">
-        <v>583.2614020227609</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="V5" t="n">
-        <v>393.8416170062758</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="W5" t="n">
-        <v>204.4218319897907</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="X5" t="n">
-        <v>204.4218319897907</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.00204697330562</v>
+        <v>161.728413768076</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.00204697330562</v>
+        <v>178.443580413543</v>
       </c>
       <c r="C6" t="n">
-        <v>15.00204697330562</v>
+        <v>178.443580413543</v>
       </c>
       <c r="D6" t="n">
-        <v>15.00204697330562</v>
+        <v>178.443580413543</v>
       </c>
       <c r="E6" t="n">
-        <v>15.00204697330562</v>
+        <v>178.443580413543</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330562</v>
+        <v>178.443580413543</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330562</v>
+        <v>40.86560336762327</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024196</v>
+        <v>59.33472114872539</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>167.4993528536689</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140247</v>
+        <v>313.079244429523</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>476.9208474646503</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476354</v>
+        <v>604.5841099877836</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017073</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652808</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R6" t="n">
-        <v>676.9378076264292</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S6" t="n">
-        <v>583.2614020227609</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="T6" t="n">
-        <v>393.8416170062758</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="U6" t="n">
-        <v>393.8416170062758</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="V6" t="n">
-        <v>204.4218319897907</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="W6" t="n">
-        <v>15.00204697330562</v>
+        <v>515.1260151086901</v>
       </c>
       <c r="X6" t="n">
-        <v>15.00204697330562</v>
+        <v>346.658917433611</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.00204697330562</v>
+        <v>346.658917433611</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230187</v>
+        <v>20.64084305584014</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170739</v>
+        <v>31.59410626612414</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396366</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702829027</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702829027</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702829027</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330562</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>204.4218319897909</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="C8" t="n">
-        <v>204.4218319897909</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="D8" t="n">
-        <v>204.4218319897909</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="E8" t="n">
-        <v>204.4218319897909</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="F8" t="n">
-        <v>15.00204697330563</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330563</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330563</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079193</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644765</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123842</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985598</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020283</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652816</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R8" t="n">
-        <v>672.2420264262274</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S8" t="n">
-        <v>511.8624171433455</v>
+        <v>511.862417143343</v>
       </c>
       <c r="T8" t="n">
-        <v>511.8624171433455</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="U8" t="n">
-        <v>511.8624171433455</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="V8" t="n">
-        <v>393.8416170062761</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="W8" t="n">
-        <v>393.8416170062761</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="X8" t="n">
-        <v>393.8416170062761</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="Y8" t="n">
-        <v>204.4218319897909</v>
+        <v>331.1605361513809</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>181.8429936158249</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="C9" t="n">
-        <v>181.8429936158249</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="D9" t="n">
-        <v>174.2395019787611</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330563</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024229</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140249</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546608</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476356</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017072</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652807</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652807</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652807</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T9" t="n">
-        <v>560.6825636487954</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U9" t="n">
-        <v>371.2627786323101</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="V9" t="n">
-        <v>181.8429936158249</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W9" t="n">
-        <v>181.8429936158249</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="X9" t="n">
-        <v>181.8429936158249</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y9" t="n">
-        <v>181.8429936158249</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330563</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330563</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330563</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330563</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230189</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M10" t="n">
-        <v>42.9899398517074</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396367</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702829028</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702829028</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702829028</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702829028</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702829028</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702829028</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702829028</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702829028</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330563</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330563</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330563</v>
+        <v>67.74542702828974</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.624422581789</v>
+        <v>1252.833343223195</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G11" t="n">
         <v>66.51211643218339</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136264</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.7846764101</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.7846764101</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W11" t="n">
-        <v>2609.016021139986</v>
+        <v>2403.038273524208</v>
       </c>
       <c r="X11" t="n">
-        <v>2413.363594621723</v>
+        <v>2029.572515263128</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.224262645911</v>
+        <v>1639.433183287317</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>176.0213023927764</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218339</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.6003534763932</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="C13" t="n">
-        <v>120.6003534763932</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D13" t="n">
-        <v>120.6003534763932</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E13" t="n">
-        <v>120.6003534763932</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F13" t="n">
-        <v>120.6003534763932</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>120.6003534763932</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218339</v>
@@ -5229,22 +5229,22 @@
         <v>920.8870058181842</v>
       </c>
       <c r="T13" t="n">
-        <v>699.1203903877102</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U13" t="n">
-        <v>410.0175235133538</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="V13" t="n">
-        <v>410.0175235133538</v>
+        <v>502.8192339670543</v>
       </c>
       <c r="W13" t="n">
-        <v>120.6003534763932</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="X13" t="n">
-        <v>120.6003534763932</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="Y13" t="n">
-        <v>120.6003534763932</v>
+        <v>213.4020639300937</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1517.887535471214</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C14" t="n">
-        <v>1517.887535471214</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D14" t="n">
-        <v>1159.621836864463</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E14" t="n">
-        <v>773.8335842662191</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>773.8335842662191</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>358.7611341112155</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218339</v>
@@ -5281,10 +5281,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810549</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
@@ -5293,13 +5293,13 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609169</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136264</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.7846764101</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796415</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y14" t="n">
-        <v>1904.487375535336</v>
+        <v>1559.116588708439</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5372,7 +5372,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.41198488674</v>
@@ -5381,28 +5381,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>528.3452334219998</v>
+        <v>478.3278112441805</v>
       </c>
       <c r="C16" t="n">
-        <v>528.3452334219998</v>
+        <v>478.3278112441805</v>
       </c>
       <c r="D16" t="n">
-        <v>528.3452334219998</v>
+        <v>328.2111718318447</v>
       </c>
       <c r="E16" t="n">
-        <v>380.4321398396066</v>
+        <v>328.2111718318447</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396066</v>
+        <v>181.3212243339343</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>181.3212243339343</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218339</v>
@@ -5436,52 +5436,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372931</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>699.1203903877102</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U16" t="n">
-        <v>699.1203903877102</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V16" t="n">
-        <v>699.1203903877102</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W16" t="n">
-        <v>699.1203903877102</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="X16" t="n">
-        <v>699.1203903877102</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.1203903877102</v>
+        <v>478.3278112441805</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1822.632236038042</v>
+        <v>1672.191441142816</v>
       </c>
       <c r="C17" t="n">
-        <v>1453.66971909763</v>
+        <v>1672.191441142816</v>
       </c>
       <c r="D17" t="n">
-        <v>1453.66971909763</v>
+        <v>1313.925742536066</v>
       </c>
       <c r="E17" t="n">
-        <v>1067.881466499386</v>
+        <v>928.1374899378213</v>
       </c>
       <c r="F17" t="n">
-        <v>656.8955617097781</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>241.8231115547746</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609169</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609169</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609169</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W17" t="n">
-        <v>2972.837166339055</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.371408077975</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y17" t="n">
-        <v>2209.232076102163</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="18">
@@ -5582,16 +5582,16 @@
         <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>445.4099384687676</v>
+        <v>700.0944266746544</v>
       </c>
       <c r="C19" t="n">
-        <v>276.4737555408607</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>126.357116128525</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596504</v>
@@ -5709,16 +5709,16 @@
         <v>920.8870058181845</v>
       </c>
       <c r="V19" t="n">
-        <v>666.2025176122977</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W19" t="n">
-        <v>666.2025176122977</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X19" t="n">
-        <v>666.2025176122977</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y19" t="n">
-        <v>445.4099384687676</v>
+        <v>700.0944266746544</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1533.087595125545</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
         <v>406.0926155839475</v>
@@ -5749,13 +5749,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5770,7 +5770,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5785,19 +5785,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>3215.315153136266</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X20" t="n">
-        <v>2841.849394875187</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y20" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.2582702654239</v>
+        <v>666.202517612298</v>
       </c>
       <c r="C22" t="n">
-        <v>527.322087337517</v>
+        <v>666.202517612298</v>
       </c>
       <c r="D22" t="n">
-        <v>527.322087337517</v>
+        <v>516.0858781999623</v>
       </c>
       <c r="E22" t="n">
-        <v>527.322087337517</v>
+        <v>368.1727846175692</v>
       </c>
       <c r="F22" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>920.8870058181845</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W22" t="n">
-        <v>920.8870058181845</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X22" t="n">
-        <v>920.8870058181845</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y22" t="n">
-        <v>877.9067350956636</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1267.635416552713</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C23" t="n">
-        <v>1267.635416552713</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D23" t="n">
-        <v>909.3697179459625</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>523.5814653477182</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
         <v>523.5814653477182</v>
@@ -5986,55 +5986,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3307.649637083189</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3101.671889467411</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3101.671889467411</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2770.609002123841</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2417.840346853726</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X23" t="n">
-        <v>2044.374588592646</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y23" t="n">
-        <v>1654.235256616835</v>
+        <v>2388.243802269322</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218343</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218343</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218343</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218343</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
         <v>176.6457242372933</v>
@@ -6156,43 +6156,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>377.0996507379417</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>87.6824807009811</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>87.6824807009811</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.6824807009811</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1405.52688261361</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C26" t="n">
-        <v>1405.52688261361</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D26" t="n">
-        <v>1047.26118400686</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E26" t="n">
-        <v>661.4729314086153</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>250.4870266190077</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G26" t="n">
         <v>66.5121164321834</v>
@@ -6226,10 +6226,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2182.266054653544</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X26" t="n">
-        <v>2182.266054653544</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y26" t="n">
-        <v>1792.126722677732</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
         <v>176.0213023927779</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
         <v>66.5121164321834</v>
@@ -6411,25 +6411,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>507.4345062145372</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U28" t="n">
-        <v>507.4345062145372</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V28" t="n">
-        <v>355.929286469144</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W28" t="n">
-        <v>66.5121164321834</v>
+        <v>394.3777680445653</v>
       </c>
       <c r="X28" t="n">
-        <v>66.5121164321834</v>
+        <v>394.3777680445653</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.5121164321834</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1517.887535471216</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C29" t="n">
-        <v>1148.925018530804</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D29" t="n">
-        <v>790.659319924054</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796418</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X29" t="n">
-        <v>1904.487375535338</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y29" t="n">
-        <v>1904.487375535338</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>383.3613929424835</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C31" t="n">
-        <v>214.4252100145765</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D31" t="n">
-        <v>214.4252100145765</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>819.69434597861</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>819.69434597861</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V31" t="n">
-        <v>565.0098577727232</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W31" t="n">
-        <v>565.0098577727232</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X31" t="n">
-        <v>565.0098577727232</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.0098577727232</v>
+        <v>250.3382603461635</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1238.038871968309</v>
+        <v>1246.723135529484</v>
       </c>
       <c r="C32" t="n">
-        <v>1238.038871968309</v>
+        <v>877.7606185890727</v>
       </c>
       <c r="D32" t="n">
-        <v>879.7731733615581</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="E32" t="n">
-        <v>821.1650657389509</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>1624.63871203243</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.4359021818241</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C34" t="n">
-        <v>444.4359021818241</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D34" t="n">
-        <v>444.4359021818241</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E34" t="n">
-        <v>296.522808599431</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>149.6328611015206</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
@@ -6894,16 +6894,16 @@
         <v>699.1203903877109</v>
       </c>
       <c r="V34" t="n">
-        <v>444.4359021818241</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W34" t="n">
-        <v>444.4359021818241</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X34" t="n">
-        <v>444.4359021818241</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y34" t="n">
-        <v>444.4359021818241</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1267.635416552713</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C35" t="n">
-        <v>1267.635416552713</v>
+        <v>1049.698447476242</v>
       </c>
       <c r="D35" t="n">
-        <v>909.3697179459625</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E35" t="n">
-        <v>523.5814653477182</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V35" t="n">
-        <v>2678.274518176916</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W35" t="n">
-        <v>2325.505862906802</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X35" t="n">
-        <v>2044.374588592646</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y35" t="n">
-        <v>1654.235256616835</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361.3151575124868</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C37" t="n">
-        <v>361.3151575124868</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>843.989196616391</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>843.989196616391</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="V37" t="n">
-        <v>589.3047084105042</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="W37" t="n">
-        <v>589.3047084105042</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="X37" t="n">
-        <v>361.3151575124868</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.3151575124868</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1632.511388127729</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C38" t="n">
-        <v>1263.548871187317</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D38" t="n">
-        <v>905.2831725805665</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>519.4949199823222</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
         <v>108.5090151927147</v>
@@ -7171,19 +7171,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3036.246795154906</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U38" t="n">
-        <v>2782.716318428742</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V38" t="n">
-        <v>2782.716318428742</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W38" t="n">
-        <v>2782.716318428742</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X38" t="n">
-        <v>2409.250560167662</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y38" t="n">
-        <v>2019.11122819185</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7259,40 +7259,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.564938772426</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C40" t="n">
-        <v>216.6287558445191</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>788.005982746196</v>
       </c>
       <c r="T40" t="n">
-        <v>788.0059827461959</v>
+        <v>788.005982746196</v>
       </c>
       <c r="U40" t="n">
-        <v>788.0059827461959</v>
+        <v>788.005982746196</v>
       </c>
       <c r="V40" t="n">
-        <v>788.0059827461959</v>
+        <v>788.005982746196</v>
       </c>
       <c r="W40" t="n">
-        <v>788.0059827461959</v>
+        <v>788.005982746196</v>
       </c>
       <c r="X40" t="n">
-        <v>788.0059827461959</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y40" t="n">
-        <v>567.2134036026657</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1636.624422581789</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1402.455495256966</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1044.189796650216</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>658.4015440519715</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912072</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810538</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>2961.784676410103</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W41" t="n">
-        <v>2609.016021139988</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X41" t="n">
-        <v>2413.363594621723</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y41" t="n">
-        <v>2023.224262645911</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="42">
@@ -7466,70 +7466,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0708164780106</v>
+        <v>258.4497899404157</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>258.4497899404157</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596506</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S43" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T43" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U43" t="n">
-        <v>848.0708164780106</v>
+        <v>440.0982547706554</v>
       </c>
       <c r="V43" t="n">
-        <v>848.0708164780106</v>
+        <v>440.0982547706554</v>
       </c>
       <c r="W43" t="n">
-        <v>848.0708164780106</v>
+        <v>440.0982547706554</v>
       </c>
       <c r="X43" t="n">
-        <v>848.0708164780106</v>
+        <v>440.0982547706554</v>
       </c>
       <c r="Y43" t="n">
-        <v>848.0708164780106</v>
+        <v>440.0982547706554</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1619.798686923957</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C44" t="n">
-        <v>1250.836169983545</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D44" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218339</v>
@@ -7675,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="X44" t="n">
-        <v>2009.938018899768</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y44" t="n">
-        <v>1619.798686923957</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="45">
@@ -7739,13 +7739,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>692.8974549201669</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C46" t="n">
-        <v>523.96127199226</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D46" t="n">
-        <v>373.8446325799242</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>225.9315389975311</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>79.04159149962075</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218339</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181842</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181842</v>
+        <v>881.634267199286</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181842</v>
+        <v>592.5314003249296</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181842</v>
+        <v>592.5314003249296</v>
       </c>
       <c r="W46" t="n">
-        <v>920.8870058181842</v>
+        <v>592.5314003249296</v>
       </c>
       <c r="X46" t="n">
-        <v>692.8974549201669</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="Y46" t="n">
-        <v>692.8974549201669</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
   </sheetData>
@@ -22558,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753912</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637378</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>67.2382049840831</v>
       </c>
       <c r="U2" t="n">
-        <v>211.4680405089103</v>
+        <v>104.3348437827356</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>198.4101950152003</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897334</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846314</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>66.38305545459011</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>79.02279728521563</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310506</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945994</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715727</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.88937963386795</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825412</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>234.0491352390155</v>
+        <v>264.8546020876779</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8318802275929</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.1696173863946</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973039</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>128.2387758071391</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166637</v>
+        <v>81.59093052713877</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>46.97568950224161</v>
       </c>
       <c r="U5" t="n">
-        <v>85.99672338893558</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038147</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510928</v>
+        <v>182.4585420190847</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897334</v>
+        <v>219.4555119577252</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>73.96491776010167</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409147</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265832</v>
+        <v>19.00792621918458</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>74.8175551438276</v>
       </c>
       <c r="S6" t="n">
-        <v>57.030603143318</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681015</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310506</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>64.1693959945994</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>38.99055850514912</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318195</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708666</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825412</v>
+        <v>59.34653264837752</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402845</v>
+        <v>17.8453529694016</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,34 +22980,34 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594825</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709379</v>
+        <v>22.00204076308474</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515972</v>
+        <v>71.38234319379299</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>215.7038047660226</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>173.4937091346023</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971608</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.350458575391</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.097833230058</v>
@@ -23041,7 +23041,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>34.54901887416435</v>
       </c>
       <c r="U8" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>210.9116663344362</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897332</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>146.4298588671567</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>139.9176088439457</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.1637893657753</v>
@@ -23120,10 +23120,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409147</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846314</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625680816</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377052</v>
+        <v>38.33818124377112</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310486</v>
+        <v>45.27499998310546</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945998</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23187,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213486</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23196,16 +23196,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825412</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402845</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.6860405515972</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>234.3070520821562</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>334.3043346825622</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>176.0351984253883</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>91.20766024055308</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983812</v>
@@ -23469,13 +23469,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>124.4623873968223</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.281236885078727</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>248.238829837046</v>
       </c>
     </row>
     <row r="15">
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.76457478588392</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>31.09399809158735</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983812</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.365581397509402</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>121.0498792159552</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23822,13 +23822,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>146.4966259053226</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>87.18741294719104</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23949,7 +23949,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>84.00311172124555</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>277.2566436803251</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>12.8027947784276</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24186,7 +24186,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>176.0341853367991</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>45.48047731675683</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>91.41113910745338</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158.8733195558276</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24420,13 +24420,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>228.7865645684974</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>76.20825294081476</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,7 +24618,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,19 +24651,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>102.1474757758887</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>271.0396404224897</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>75.94636426876343</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>19.46496000949116</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>143.2651457300283</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24891,22 +24891,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>119.36821603499</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>321.7031528533607</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>323.9083435258808</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>83.73627103638442</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25134,7 +25134,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>63.9894529875603</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>82.81238401609733</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>91.41113910745491</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,19 +25365,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>143.4201181663933</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>226.7089698421497</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>26.64029573807431</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>71.93701474117881</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>58.21681249017232</v>
       </c>
       <c r="T40" t="n">
-        <v>87.99673643490007</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>157.0902065583676</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>176.0351984253861</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>105.0311388916316</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>214.1238107588402</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>308.3141070704081</v>
+        <v>274.1961480012255</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>153.6216279422652</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>180.68873804346</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337679</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337678</v>
+        <v>417888.8482179074</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337679</v>
+        <v>433263.0758337675</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587487</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.6800963042</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.6800963042</v>
+        <v>144653.8320754294</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.6800963042</v>
+        <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318746</v>
@@ -26334,28 +26334,28 @@
         <v>296136.8796318746</v>
       </c>
       <c r="I2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="J2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="K2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="K2" t="n">
-        <v>296136.8796318745</v>
-      </c>
       <c r="L2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="M2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="N2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="O2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="P2" t="n">
         <v>296136.8796318744</v>
-      </c>
-      <c r="O2" t="n">
-        <v>296136.8796318745</v>
-      </c>
-      <c r="P2" t="n">
-        <v>296136.8796318745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340639</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679072</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336668</v>
+        <v>627134.6436336673</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.533686599941575e-10</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>38421.40650613405</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136608</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004427</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678771</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723343</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723343</v>
+        <v>122.1898065383436</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723343</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061228</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
         <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26447,13 +26447,13 @@
         <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="O4" t="n">
         <v>584.6469890061231</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161359</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.8004116136</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139327</v>
@@ -26484,7 +26484,7 @@
         <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26496,19 +26496,19 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="O5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139327</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.8849732621</v>
+        <v>-458518.1319426713</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.01754758359</v>
+        <v>64626.8667898573</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.01754758359</v>
+        <v>69896.83250792389</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.7469303613</v>
+        <v>-406296.151090009</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.492543658</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.492543658</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.9519747608</v>
+        <v>182417.0860375242</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033055</v>
+        <v>215707.5254415214</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033055</v>
+        <v>215588.5853176536</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542837</v>
+        <v>60382.05067578069</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.492543658</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033058</v>
+        <v>220838.4925436585</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129049</v>
+        <v>530.6136320241911</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26773,10 +26773,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663202</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663204</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022923</v>
@@ -26804,31 +26804,31 @@
         <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022924</v>
@@ -26959,43 +26959,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697031</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871333</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803929</v>
+        <v>541.3067596803934</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961972</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.74316046799146</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359719</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961972</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799146</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359718</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961972</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799146</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359719</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>139.0785066724534</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628875</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077003</v>
+        <v>2.133120128740465</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>21.84581651846329</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043124</v>
+        <v>82.23711376326686</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655545</v>
+        <v>181.0459045266862</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>271.3408795762702</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>336.6223547162112</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470276</v>
+        <v>374.5572298056995</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622682</v>
+        <v>359.4067440913203</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151094</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619226</v>
+        <v>48.6084749336734</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924586</v>
+        <v>9.337733363561391</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590853</v>
+        <v>39.29544350367831</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340084</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621738</v>
+        <v>184.2981329267419</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405034</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975332</v>
+        <v>289.1844294531841</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829656</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292675</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>197.1517779249664</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936716</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550081</v>
+        <v>70.86194882013635</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.19951633606083</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820373</v>
+        <v>4.600320073870108</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07508683472040444</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9568442544698528</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620021</v>
+        <v>8.507215280650152</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639164</v>
+        <v>28.77491630714794</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114199</v>
+        <v>67.64888879101859</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682167</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784864</v>
+        <v>80.12265843565285</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647913</v>
+        <v>43.02319711461719</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147604</v>
+        <v>16.67518578017006</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181397</v>
+        <v>4.088334541825733</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32107,7 +32107,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32156,16 +32156,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32174,19 +32174,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563583</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33517,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953972</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970248</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>1.237067698094463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855722</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868166</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.3822424078835</v>
+        <v>51.25102853128965</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973022</v>
+        <v>100.855939746224</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197549</v>
+        <v>144.2109965784267</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405815</v>
+        <v>129.3085326696336</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916007</v>
+        <v>75.51234515777054</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406599</v>
+        <v>8.047286428072596</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781481</v>
+        <v>46.45669395238295</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>147.0503955311658</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996323</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848231</v>
+        <v>128.9527904274074</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855708</v>
+        <v>63.1773705106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765005</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646086</v>
+        <v>7.371968606034216</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061163</v>
+        <v>11.0639022326101</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520835</v>
+        <v>18.73772222104901</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400609</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K8" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406599</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996323</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
         <v>157.2826706286436</v>
@@ -35819,13 +35819,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M40" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687109</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M43" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525803</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127284</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
